--- a/My_PROYECT_FING_G1/ELICITACION/1.2 Historial de usuario/Historias de usuario grupo G6 V3.xlsx
+++ b/My_PROYECT_FING_G1/ELICITACION/1.2 Historial de usuario/Historias de usuario grupo G6 V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G406\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB67206E-0A67-438D-A365-EDB059A6C572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D09A04-DC9C-4345-A4F9-D0A4B85387D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,9 +191,6 @@
     <t>Henry Suin</t>
   </si>
   <si>
-    <t>Comprobando que los datos de las cuentas fueron modificados o que la cuenta ya no aparezca en el registro</t>
-  </si>
-  <si>
     <t>Administracion de cuentas</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>Mostrar contenido según el perfil del usuario</t>
   </si>
   <si>
-    <t>Mediante la creación de un login</t>
-  </si>
-  <si>
     <t>Ingreso al sistema</t>
   </si>
   <si>
@@ -218,19 +212,25 @@
     <t>Crear cuentas</t>
   </si>
   <si>
-    <t xml:space="preserve">Mediante la creación de un formulario  que registre a nuevos usuarios </t>
-  </si>
-  <si>
-    <t>El software tiene que guardar datos como nombres, fecha y hora</t>
-  </si>
-  <si>
-    <t>mejorar la administración del las asistencias</t>
-  </si>
-  <si>
     <t>Mediante la implementación de un formulario que registre las aistencias</t>
   </si>
   <si>
-    <t>Registro exitoso</t>
+    <t>El usario pueda registrar su asistencia</t>
+  </si>
+  <si>
+    <t>Mediante la creación de un login que verifique las credenciales</t>
+  </si>
+  <si>
+    <t>Creando un fromulario el cual registre nuevos usuarios mediante credenciales</t>
+  </si>
+  <si>
+    <t>Llevar un registro de asistencias</t>
+  </si>
+  <si>
+    <t>Historial de registros de asitencias</t>
+  </si>
+  <si>
+    <t>Iniciando sesion</t>
   </si>
 </sst>
 </file>
@@ -818,17 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -856,23 +845,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,6 +853,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1323,19 +1323,19 @@
         <v>15</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>49</v>
@@ -1353,13 +1353,13 @@
         <v>16</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N6" s="31" t="s">
         <v>17</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -1370,16 +1370,16 @@
         <v>40</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H7" s="38" t="s">
         <v>35</v>
@@ -1412,10 +1412,10 @@
         <v>39</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>61</v>
@@ -1424,7 +1424,7 @@
         <v>33</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H8" s="38" t="s">
         <v>34</v>
@@ -1442,13 +1442,13 @@
         <v>16</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N8" s="31" t="s">
         <v>17</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -1497,13 +1497,13 @@
         <v>37</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="N9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.2">
@@ -7487,23 +7487,23 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="63"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="61"/>
     </row>
     <row r="7" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
@@ -7543,15 +7543,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="63"/>
+      <c r="I9" s="61"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -7566,17 +7566,17 @@
         <v>44</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="65" t="str">
+      <c r="E10" s="62" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,5,0)</f>
         <v>Leandro Rubio</v>
       </c>
-      <c r="F10" s="63"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="65" t="str">
+      <c r="H10" s="62" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,11,0)</f>
         <v xml:space="preserve">No iniciado </v>
       </c>
-      <c r="I10" s="63"/>
+      <c r="I10" s="61"/>
       <c r="J10" s="17"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -7608,15 +7608,15 @@
         <v>26</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="63"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="63"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="17"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -7632,17 +7632,17 @@
         <v>3</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="65" t="str">
+      <c r="E13" s="62" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,10,0)</f>
         <v xml:space="preserve">Media </v>
       </c>
-      <c r="F13" s="63"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="65" t="str">
+      <c r="H13" s="62" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,7,0)</f>
         <v>Isaac Erazo</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="17"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -7673,65 +7673,65 @@
       <c r="C15" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="52" t="str">
+      <c r="D15" s="45" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,3,0)</f>
         <v xml:space="preserve">Poder editar o eliminar las cuentas creadas </v>
       </c>
-      <c r="E15" s="46"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="14"/>
       <c r="G15" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="52" t="str">
+      <c r="H15" s="45" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,4,0)</f>
         <v xml:space="preserve">En caso de despido o ascenso </v>
       </c>
-      <c r="I15" s="67"/>
-      <c r="J15" s="46"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="64"/>
       <c r="K15" s="14"/>
       <c r="L15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="52" t="str">
+      <c r="M15" s="45" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,6,0)</f>
         <v>Creando un sistema que permita elimnar y editar las cuentas registradas</v>
       </c>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="47"/>
       <c r="P15" s="29"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="28"/>
       <c r="C16" s="43"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="14"/>
       <c r="G16" s="43"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="51"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="69"/>
       <c r="K16" s="14"/>
       <c r="L16" s="43"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="57"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="50"/>
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="28"/>
       <c r="C17" s="44"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="14"/>
       <c r="G17" s="44"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="48"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="66"/>
       <c r="K17" s="14"/>
       <c r="L17" s="44"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="60"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7753,41 +7753,41 @@
     </row>
     <row r="19" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="28"/>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="70" t="str">
+      <c r="D19" s="64"/>
+      <c r="E19" s="54" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,14,0)</f>
         <v>Administracion de cuentas</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="72"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="56"/>
       <c r="P19" s="29"/>
     </row>
     <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="28"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="75"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="59"/>
       <c r="P20" s="29"/>
     </row>
     <row r="21" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7809,63 +7809,63 @@
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="28"/>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="52" t="str">
+      <c r="D22" s="64"/>
+      <c r="E22" s="45" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,12,0)</f>
-        <v>Comprobando que los datos de las cuentas fueron modificados o que la cuenta ya no aparezca en el registro</v>
-      </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
+        <v>Iniciando sesion</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="49" t="s">
+      <c r="J22" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="46"/>
-      <c r="L22" s="66" t="str">
+      <c r="K22" s="64"/>
+      <c r="L22" s="72" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O17,13,0)</f>
         <v>-</v>
       </c>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="46"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="64"/>
       <c r="P22" s="29"/>
     </row>
     <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="28"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="51"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="69"/>
       <c r="P23" s="29"/>
     </row>
     <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="28"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="60"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="48"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="66"/>
       <c r="P24" s="29"/>
     </row>
     <row r="25" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8882,11 +8882,6 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -8903,6 +8898,11 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
